--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Resources_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Resources_final.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.657917002136069e-06</v>
+        <v>-8.092977165980449e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.003031999999999991</v>
+        <v>-0.005267999999999965</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02332964643057665</v>
+        <v>-0.04053449122568514</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.191135367439119e-08</v>
+        <v>-1.423182754474575e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.182262840311401e-06</v>
+        <v>-2.05414269220331e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.083047764915892e-05</v>
+        <v>-1.881759770968634e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.279028692096122e-13</v>
+        <v>-1.438453929748094e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.415955303533627e-11</v>
+        <v>-2.46017563951686e-11</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0002485657472554546</v>
+        <v>-0.0004318747877776155</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.004311780225523813</v>
+        <v>-0.007491575932737256</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.860550521431756e-08</v>
+        <v>-3.232645167184187e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.078778444115869e-11</v>
+        <v>-5.349276003826628e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.082432026888569e-06</v>
+        <v>-1.05680250388024e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.002937094967207542</v>
+        <v>-0.005103105635636304</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05525759925382573</v>
+        <v>-0.09600825622333538</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.167467513865566e-10</v>
+        <v>-7.240837355885132e-10</v>
       </c>
     </row>
     <row r="3">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.598116579771322e-06</v>
+        <v>1.925935365365411e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>3.899999999999967e-05</v>
+        <v>4.699999999999891e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001412750109423828</v>
+        <v>0.001702545003664588</v>
       </c>
       <c r="E4" t="n">
-        <v>5.896328163128298e-09</v>
+        <v>7.105831376077588e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>1.767633767623823e-07</v>
+        <v>2.130225309700474e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>5.924993735812375e-06</v>
+        <v>7.140377066235322e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>5.429881529935057e-14</v>
+        <v>6.543703382229332e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>9.725467082878061e-13</v>
+        <v>1.172043468962211e-12</v>
       </c>
       <c r="J4" t="n">
-        <v>9.607873921496443e-06</v>
+        <v>1.157871985411093e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002219120506064189</v>
+        <v>0.002674324712436292</v>
       </c>
       <c r="L4" t="n">
-        <v>1.337727846940019e-09</v>
+        <v>1.612133559132819e-09</v>
       </c>
       <c r="M4" t="n">
-        <v>8.353451690010658e-12</v>
+        <v>1.006698024180757e-11</v>
       </c>
       <c r="N4" t="n">
-        <v>4.236452634026342e-07</v>
+        <v>5.105468558954748e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003138981712134598</v>
+        <v>0.0003782875396674973</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0004009429951245277</v>
+        <v>0.0004831877120731417</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.423489666549048e-12</v>
+        <v>5.330872162251339e-12</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.26601316324905e-07</v>
+        <v>8.878310434601776e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.699999999999438e-05</v>
+        <v>-2.899999999999706e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004557748181722075</v>
+        <v>0.004895359158146454</v>
       </c>
       <c r="E5" t="n">
-        <v>8.548801391701781e-09</v>
+        <v>9.182045939236224e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>7.062299463977044e-07</v>
+        <v>7.585432757605781e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>3.389709003010421e-06</v>
+        <v>3.640798558789358e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8031423220888e-14</v>
+        <v>5.158930642244075e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.337888134549701e-12</v>
+        <v>2.511065033405502e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>2.331985968969293e-06</v>
+        <v>2.504725670374692e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008735632350692316</v>
+        <v>0.009382716228522374</v>
       </c>
       <c r="L5" t="n">
-        <v>5.597674765608667e-10</v>
+        <v>6.012317340839579e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>6.357782931582079e-12</v>
+        <v>6.828729815403701e-12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.332697341134334e-07</v>
+        <v>1.431415662699993e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0003960781646282977</v>
+        <v>0.0004254172879341428</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0004314280107184661</v>
+        <v>0.0004633856411421055</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.40810520076621e-12</v>
+        <v>6.882779660082959e-12</v>
       </c>
     </row>
     <row r="6">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.638013357657187e-07</v>
+        <v>9.648016872829024e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.899999999999724e-05</v>
+        <v>-2.399999999999376e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003024819232223463</v>
+        <v>0.003820824293334462</v>
       </c>
       <c r="E7" t="n">
-        <v>8.945596096715011e-09</v>
+        <v>1.129970033269135e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>7.058960602642906e-07</v>
+        <v>8.916581813863698e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>3.063088998905876e-06</v>
+        <v>3.869165051249082e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>4.037233669986674e-14</v>
+        <v>5.099663583140475e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.436600112623371e-12</v>
+        <v>3.077810668576536e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.272232555093808e-06</v>
+        <v>4.133346385381177e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00799219953712688</v>
+        <v>0.01009540994163279</v>
       </c>
       <c r="L7" t="n">
-        <v>5.42186221301091e-10</v>
+        <v>6.84866805853931e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>6.419146808112474e-12</v>
+        <v>8.10839596814114e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.475846352099913e-07</v>
+        <v>1.86422697107336e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000399421307472084</v>
+        <v>0.0005045321778594166</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0005722378752906345</v>
+        <v>0.0007228267898407184</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.244556263836098e-12</v>
+        <v>7.887860543792059e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1077,52 +1077,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.14235938795141</v>
+        <v>15.14235937741055</v>
       </c>
       <c r="C12" t="n">
-        <v>1436.539483</v>
+        <v>1436.539482</v>
       </c>
       <c r="D12" t="n">
-        <v>266351.8808659067</v>
+        <v>266351.8806804945</v>
       </c>
       <c r="E12" t="n">
-        <v>7.268466424788897</v>
+        <v>7.268466419729191</v>
       </c>
       <c r="F12" t="n">
-        <v>6.022168585456365</v>
+        <v>6.022168581264228</v>
       </c>
       <c r="G12" t="n">
-        <v>53.45033591600294</v>
+        <v>53.45033587879524</v>
       </c>
       <c r="H12" t="n">
-        <v>1.889784555417912e-06</v>
+        <v>1.8897845541024e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>9.875478945901613e-05</v>
+        <v>9.87547893902712e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>70.24110765561747</v>
+        <v>70.24110760672141</v>
       </c>
       <c r="K12" t="n">
-        <v>28202.62892210938</v>
+        <v>28202.62890247704</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00552405024024188</v>
+        <v>0.005524050236396493</v>
       </c>
       <c r="M12" t="n">
-        <v>9.125848596712112e-05</v>
+        <v>9.12584859035945e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>12.60649878538226</v>
+        <v>12.60649877660665</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2169417265819</v>
+        <v>409.2169414417189</v>
       </c>
       <c r="P12" t="n">
-        <v>151717.5395410452</v>
+        <v>151717.539435432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0001174687243833275</v>
+        <v>0.0001174687243015555</v>
       </c>
     </row>
     <row r="13">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.573641406170689</v>
+        <v>9.835896836082423</v>
       </c>
       <c r="C13" t="n">
-        <v>562.907028</v>
+        <v>731.048007</v>
       </c>
       <c r="D13" t="n">
-        <v>34928.38940486206</v>
+        <v>45361.53963624757</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0185239487237445</v>
+        <v>0.02405707358882649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9914695361910821</v>
+        <v>1.287622631056767</v>
       </c>
       <c r="G13" t="n">
-        <v>10.24490689047613</v>
+        <v>13.30507240386265</v>
       </c>
       <c r="H13" t="n">
-        <v>2.711706309524772e-07</v>
+        <v>3.521696114171469e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>7.824387852977016e-06</v>
+        <v>1.016154153597432e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>293.0291983630466</v>
+        <v>380.5573581435421</v>
       </c>
       <c r="K13" t="n">
-        <v>9806.856829322807</v>
+        <v>12736.1762838228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001241590020347731</v>
+        <v>0.001612454392533003</v>
       </c>
       <c r="M13" t="n">
-        <v>4.083926366900663e-05</v>
+        <v>5.303799886572886e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2039040792611</v>
+        <v>5.459615080099865</v>
       </c>
       <c r="O13" t="n">
-        <v>135.9650651773292</v>
+        <v>176.5779870837065</v>
       </c>
       <c r="P13" t="n">
-        <v>63650.90711696515</v>
+        <v>82663.50654197106</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001080227572543404</v>
+        <v>0.001402892795316642</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.46266206984506</v>
+        <v>21.04933985886543</v>
       </c>
       <c r="C14" t="n">
-        <v>2954.399027</v>
+        <v>2897.504</v>
       </c>
       <c r="D14" t="n">
-        <v>183532.0682642697</v>
+        <v>179997.6567362965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7732008632036466</v>
+        <v>0.7583107675915229</v>
       </c>
       <c r="F14" t="n">
-        <v>6.307302297269713</v>
+        <v>6.185837955039436</v>
       </c>
       <c r="G14" t="n">
-        <v>63.93060032120196</v>
+        <v>62.69944190347987</v>
       </c>
       <c r="H14" t="n">
-        <v>8.058955162738742e-06</v>
+        <v>7.903757957694505e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001414916251599</v>
+        <v>0.0001387668172513621</v>
       </c>
       <c r="J14" t="n">
-        <v>6046.802196807388</v>
+        <v>5930.354495902085</v>
       </c>
       <c r="K14" t="n">
-        <v>172182.1802303955</v>
+        <v>168866.3418133098</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1579688948345973</v>
+        <v>0.1549267720696501</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003106630847456273</v>
+        <v>0.0003046804180736667</v>
       </c>
       <c r="N14" t="n">
-        <v>16.11066462490476</v>
+        <v>15.80040975058175</v>
       </c>
       <c r="O14" t="n">
-        <v>6787.609539533724</v>
+        <v>6656.89556877759</v>
       </c>
       <c r="P14" t="n">
-        <v>143363.1445460113</v>
+        <v>140602.295417235</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0003648491288887502</v>
+        <v>0.0003578229618580461</v>
       </c>
     </row>
     <row r="15">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.14919343900803</v>
+        <v>21.25368890419541</v>
       </c>
       <c r="C16" t="n">
-        <v>10840.269927</v>
+        <v>10893.830317</v>
       </c>
       <c r="D16" t="n">
-        <v>177915.941343431</v>
+        <v>178795.0012994784</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3142049530667698</v>
+        <v>0.315757399633093</v>
       </c>
       <c r="F16" t="n">
-        <v>7.991618718184538</v>
+        <v>8.031104286178666</v>
       </c>
       <c r="G16" t="n">
-        <v>83.87858774380328</v>
+        <v>84.29302113913946</v>
       </c>
       <c r="H16" t="n">
-        <v>4.959524412831926e-06</v>
+        <v>4.984028789895837e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>5.739500718318446e-05</v>
+        <v>5.767858858747472e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>5007.080730210364</v>
+        <v>5031.820076968103</v>
       </c>
       <c r="K16" t="n">
-        <v>17865.58943372378</v>
+        <v>17953.86103065762</v>
       </c>
       <c r="L16" t="n">
-        <v>0.016138638573637</v>
+        <v>0.01621837752680828</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001874435013789328</v>
+        <v>0.0001883696357929676</v>
       </c>
       <c r="N16" t="n">
-        <v>63.92705561236182</v>
+        <v>64.24291103415548</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.79507081494</v>
+        <v>1139.397007536245</v>
       </c>
       <c r="P16" t="n">
-        <v>806055.2504758261</v>
+        <v>810037.8665792777</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0100024725997367</v>
+        <v>0.01005189354008356</v>
       </c>
     </row>
     <row r="17">
@@ -1352,52 +1352,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.77390084598114</v>
+        <v>13.77390056710342</v>
       </c>
       <c r="C17" t="n">
-        <v>1086.590252</v>
+        <v>1086.59023</v>
       </c>
       <c r="D17" t="n">
-        <v>53389.4022107245</v>
+        <v>53389.40112975876</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03818019407053733</v>
+        <v>0.03818019329750971</v>
       </c>
       <c r="F17" t="n">
-        <v>1.603889555546707</v>
+        <v>1.60388952307304</v>
       </c>
       <c r="G17" t="n">
-        <v>16.69106278314137</v>
+        <v>16.69106244520038</v>
       </c>
       <c r="H17" t="n">
-        <v>5.245963644418586e-07</v>
+        <v>5.245963538204492e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>1.329157677665423e-05</v>
+        <v>1.329157650754204e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>423.5308868907504</v>
+        <v>423.5308783155958</v>
       </c>
       <c r="K17" t="n">
-        <v>14306.8053960358</v>
+        <v>14306.80510636845</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002166557718385425</v>
+        <v>0.002166557674519516</v>
       </c>
       <c r="M17" t="n">
-        <v>8.958278290304374e-05</v>
+        <v>8.958278108927705e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>6.792908253698847</v>
+        <v>6.792908116164039</v>
       </c>
       <c r="O17" t="n">
-        <v>212.1773451073246</v>
+        <v>212.1773408114076</v>
       </c>
       <c r="P17" t="n">
-        <v>92115.41622756534</v>
+        <v>92115.41436252087</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001558372670756052</v>
+        <v>0.001558372639203957</v>
       </c>
     </row>
     <row r="18">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.522420842624535</v>
+        <v>6.522415945083829</v>
       </c>
       <c r="C20" t="n">
-        <v>9135.974494</v>
+        <v>9135.967634000001</v>
       </c>
       <c r="D20" t="n">
-        <v>63636.88047437261</v>
+        <v>63636.83269085479</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1744808037964138</v>
+        <v>0.1744806727826599</v>
       </c>
       <c r="F20" t="n">
-        <v>1.598758577682444</v>
+        <v>1.598757377210196</v>
       </c>
       <c r="G20" t="n">
-        <v>16.77473003612183</v>
+        <v>16.77471744035024</v>
       </c>
       <c r="H20" t="n">
-        <v>1.870669419355272e-06</v>
+        <v>1.870668014711222e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>3.376116863252328e-05</v>
+        <v>3.376114328201284e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>969.3603853667347</v>
+        <v>969.3596574955867</v>
       </c>
       <c r="K20" t="n">
-        <v>10770.47212879309</v>
+        <v>10770.46404148518</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03761489360335653</v>
+        <v>0.03761486535916974</v>
       </c>
       <c r="M20" t="n">
-        <v>5.47484573893976e-05</v>
+        <v>5.474841627999893e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>13.19861550348049</v>
+        <v>13.19860559293374</v>
       </c>
       <c r="O20" t="n">
-        <v>776.2290966777078</v>
+        <v>776.2285138245479</v>
       </c>
       <c r="P20" t="n">
-        <v>148507.0159928045</v>
+        <v>148506.9044821901</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0008564716073094937</v>
+        <v>0.0008564709642040178</v>
       </c>
     </row>
     <row r="21">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.036352975801916e-06</v>
+        <v>1.104534092631011e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>7.599999999999732e-05</v>
+        <v>8.099999999999873e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004708595298838253</v>
+        <v>0.005018371305340868</v>
       </c>
       <c r="E23" t="n">
-        <v>2.592301132088552e-09</v>
+        <v>2.762847259199695e-09</v>
       </c>
       <c r="F23" t="n">
-        <v>1.377237532718213e-07</v>
+        <v>1.467845265133913e-07</v>
       </c>
       <c r="G23" t="n">
-        <v>1.427334184268174e-06</v>
+        <v>1.521237749022689e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.698554174219081e-14</v>
+        <v>3.941880106733571e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>1.078926901211097e-12</v>
+        <v>1.149908934185534e-12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.930013673200304e-05</v>
+        <v>4.188567204331985e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001287373670002681</v>
+        <v>0.001372069306187095</v>
       </c>
       <c r="L23" t="n">
-        <v>2.066696762756727e-10</v>
+        <v>2.202663655043397e-10</v>
       </c>
       <c r="M23" t="n">
-        <v>5.734711255541227e-12</v>
+        <v>6.111994890774322e-12</v>
       </c>
       <c r="N23" t="n">
-        <v>5.785343341315924e-07</v>
+        <v>6.16595803482367e-07</v>
       </c>
       <c r="O23" t="n">
-        <v>1.808959378315932e-05</v>
+        <v>1.927969863731492e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008533809389831306</v>
+        <v>0.009095244218109859</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.448516677350042e-10</v>
+        <v>1.543813827175733e-10</v>
       </c>
     </row>
     <row r="24">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.67866376289479</v>
+        <v>18.96052462035615</v>
       </c>
       <c r="C25" t="n">
-        <v>5153.132886999999</v>
+        <v>4724.971792000001</v>
       </c>
       <c r="D25" t="n">
-        <v>146408.8848135376</v>
+        <v>134244.1318731206</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3783052325316621</v>
+        <v>0.3468727843187299</v>
       </c>
       <c r="F25" t="n">
-        <v>4.455626810921361</v>
+        <v>4.085419774520624</v>
       </c>
       <c r="G25" t="n">
-        <v>45.43786689524203</v>
+        <v>41.66254666365822</v>
       </c>
       <c r="H25" t="n">
-        <v>2.246387657863664e-06</v>
+        <v>2.059740850867517e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5529664456559e-05</v>
+        <v>5.09158416695157e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>945.8592829311614</v>
+        <v>867.2701692451204</v>
       </c>
       <c r="K25" t="n">
-        <v>22160.37533818935</v>
+        <v>20319.12443733516</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03857888537847937</v>
+        <v>0.03537346099495538</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001477169197409812</v>
+        <v>0.0001354434854063301</v>
       </c>
       <c r="N25" t="n">
-        <v>28.09768027365919</v>
+        <v>25.76311335742865</v>
       </c>
       <c r="O25" t="n">
-        <v>2147.261865028065</v>
+        <v>1968.851175542161</v>
       </c>
       <c r="P25" t="n">
-        <v>330244.5342585903</v>
+        <v>302805.3308639656</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002120345006651765</v>
+        <v>0.001944170772504599</v>
       </c>
     </row>
     <row r="26">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.611801371535372e-08</v>
+        <v>7.014751714419216e-08</v>
       </c>
       <c r="C27" t="n">
-        <v>-4e-06</v>
+        <v>-5.000000000000001e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0004389429736792721</v>
+        <v>0.0005486787170990902</v>
       </c>
       <c r="E27" t="n">
-        <v>1.591334561204618e-09</v>
+        <v>1.989168201505773e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>1.862186315916486e-08</v>
+        <v>2.327732894895608e-08</v>
       </c>
       <c r="G27" t="n">
-        <v>1.16073671296385e-07</v>
+        <v>1.450920891204813e-07</v>
       </c>
       <c r="H27" t="n">
-        <v>1.028568078971996e-14</v>
+        <v>1.285710098714995e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>2.204772905001996e-13</v>
+        <v>2.755966131252496e-13</v>
       </c>
       <c r="J27" t="n">
-        <v>7.196244913913236e-07</v>
+        <v>8.995306142391547e-07</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001449522374368949</v>
+        <v>0.0001811902967961187</v>
       </c>
       <c r="L27" t="n">
-        <v>2.620016852434225e-10</v>
+        <v>3.275021065542782e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>3.392279933525719e-13</v>
+        <v>4.240349916907149e-13</v>
       </c>
       <c r="N27" t="n">
-        <v>3.126611345325407e-08</v>
+        <v>3.90826418165676e-08</v>
       </c>
       <c r="O27" t="n">
-        <v>2.019007517824264e-05</v>
+        <v>2.523759397280331e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>6.128572318037165e-05</v>
+        <v>7.660715397546457e-05</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.493956800856939e-13</v>
+        <v>8.117446001071175e-13</v>
       </c>
     </row>
     <row r="28">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.68442462467414</v>
+        <v>9.684424455131655</v>
       </c>
       <c r="C34" t="n">
-        <v>-16108.102859</v>
+        <v>-16108.102577</v>
       </c>
       <c r="D34" t="n">
-        <v>32532.39394195836</v>
+        <v>32532.39337242294</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1346691604660605</v>
+        <v>0.1346691581084456</v>
       </c>
       <c r="F34" t="n">
-        <v>9.773754827239941</v>
+        <v>9.77375465613358</v>
       </c>
       <c r="G34" t="n">
-        <v>41.23962901195554</v>
+        <v>41.23962828998502</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.469717665843334e-07</v>
+        <v>-1.469717640113403e-07</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.850823603726251e-05</v>
+        <v>-4.850823518804254e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>32.618342016989</v>
+        <v>32.61834144594891</v>
       </c>
       <c r="K34" t="n">
-        <v>89786.16544652591</v>
+        <v>89786.16387466488</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008185981462374958</v>
+        <v>0.008185981319065295</v>
       </c>
       <c r="M34" t="n">
-        <v>8.755460989632761e-05</v>
+        <v>8.755460836353382e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>2.798776239288328</v>
+        <v>2.798776190290944</v>
       </c>
       <c r="O34" t="n">
-        <v>1595.056316374073</v>
+        <v>1595.056288449873</v>
       </c>
       <c r="P34" t="n">
-        <v>5158.052872678392</v>
+        <v>5158.052782377818</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.718569313148327e-05</v>
+        <v>5.718569213034951e-05</v>
       </c>
     </row>
     <row r="35">
@@ -2342,52 +2342,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.849331613534664</v>
+        <v>3.849331503189817</v>
       </c>
       <c r="C35" t="n">
-        <v>-7465.296175000001</v>
+        <v>-7465.295961000001</v>
       </c>
       <c r="D35" t="n">
-        <v>46511.1131618521</v>
+        <v>46511.11182856565</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08555859072690443</v>
+        <v>0.08555858827428393</v>
       </c>
       <c r="F35" t="n">
-        <v>4.8674592420992</v>
+        <v>4.867459102568731</v>
       </c>
       <c r="G35" t="n">
-        <v>15.46949090868847</v>
+        <v>15.46949046524042</v>
       </c>
       <c r="H35" t="n">
-        <v>4.364106768432128e-07</v>
+        <v>4.364106643330748e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>1.913948239178952e-05</v>
+        <v>1.913948184313758e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>15.72690264765406</v>
+        <v>15.72690219682705</v>
       </c>
       <c r="K35" t="n">
-        <v>94853.84963644308</v>
+        <v>94853.84691736491</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004687265772486248</v>
+        <v>0.0046872656381212</v>
       </c>
       <c r="M35" t="n">
-        <v>3.502527417767983e-05</v>
+        <v>3.502527317364616e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.262504493484134</v>
+        <v>1.26250445729321</v>
       </c>
       <c r="O35" t="n">
-        <v>1301.870932613405</v>
+        <v>1301.870895294004</v>
       </c>
       <c r="P35" t="n">
-        <v>2672.059847785634</v>
+        <v>2672.059771188431</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.090039207866511e-05</v>
+        <v>3.090039119287522e-05</v>
       </c>
     </row>
     <row r="36">
@@ -2397,52 +2397,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.363408415872287e-08</v>
+        <v>6.293795590054214e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0001959999999999874</v>
+        <v>-0.0002299999999999851</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0006697421531113201</v>
+        <v>0.0007859219143653246</v>
       </c>
       <c r="E36" t="n">
-        <v>6.387443578362165e-09</v>
+        <v>7.495469505220907e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>1.338226079997281e-07</v>
+        <v>1.570367338772319e-07</v>
       </c>
       <c r="G36" t="n">
-        <v>2.073867545631797e-07</v>
+        <v>2.433620079057721e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>2.478273169331973e-14</v>
+        <v>2.908177698705886e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.782167691749932e-14</v>
+        <v>-1.147907433215553e-13</v>
       </c>
       <c r="J36" t="n">
-        <v>3.411252779490134e-07</v>
+        <v>4.003000710626177e-07</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005469036754962407</v>
+        <v>0.006417747212455885</v>
       </c>
       <c r="L36" t="n">
-        <v>1.083893694242994e-10</v>
+        <v>1.271916069774942e-10</v>
       </c>
       <c r="M36" t="n">
-        <v>5.848615587310413e-13</v>
+        <v>6.863171352456096e-13</v>
       </c>
       <c r="N36" t="n">
-        <v>3.772170284728588e-08</v>
+        <v>4.426526354528445e-08</v>
       </c>
       <c r="O36" t="n">
-        <v>2.991620204294761e-06</v>
+        <v>3.510574729529566e-06</v>
       </c>
       <c r="P36" t="n">
-        <v>6.114601306069865e-05</v>
+        <v>7.175297451000352e-05</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.369703832257729e-13</v>
+        <v>8.648121843975905e-13</v>
       </c>
     </row>
   </sheetData>
